--- a/StructureDefinition-emr-lab-openmrs-identifier.xlsx
+++ b/StructureDefinition-emr-lab-openmrs-identifier.xlsx
@@ -218,7 +218,7 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/StructureDefinition/emr-lis-patient-identifier-location}
+    <t xml:space="preserve">Extension {http://i-tech-uw.github.io/emr-lis-ig/StructureDefinition/emr-lis-patient-identifier-location}
 </t>
   </si>
   <si>
